--- a/Excel-XLSX/UN-MLW.xlsx
+++ b/Excel-XLSX/UN-MLW.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>cMy253</t>
+    <t>6Z1Ses</t>
   </si>
   <si>
     <t>1986</t>
@@ -1617,19 +1617,19 @@
     <t>255</t>
   </si>
   <si>
-    <t>6486</t>
-  </si>
-  <si>
-    <t>5427</t>
+    <t>6662</t>
+  </si>
+  <si>
+    <t>5751</t>
   </si>
   <si>
     <t>256</t>
   </si>
   <si>
-    <t>25717</t>
-  </si>
-  <si>
-    <t>9581</t>
+    <t>25649</t>
+  </si>
+  <si>
+    <t>11128</t>
   </si>
   <si>
     <t>257</t>
@@ -1641,10 +1641,10 @@
     <t>260</t>
   </si>
   <si>
-    <t>3027</t>
-  </si>
-  <si>
-    <t>3856</t>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>3950</t>
   </si>
   <si>
     <t>261</t>
@@ -19433,7 +19433,7 @@
         <v>534</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="Q256" s="2" t="s">
         <v>33</v>
@@ -19631,10 +19631,10 @@
         <v>31</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="P259" s="2" t="s">
         <v>33</v>
@@ -19773,7 +19773,7 @@
         <v>542</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="Q261" s="2" t="s">
         <v>33</v>
@@ -19835,10 +19835,10 @@
         <v>31</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>33</v>
@@ -19879,16 +19879,16 @@
         <v>199</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>86</v>
+        <v>443</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>87</v>
+        <v>444</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>88</v>
+        <v>444</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>28</v>
@@ -19947,16 +19947,16 @@
         <v>199</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>442</v>
+        <v>114</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>443</v>
+        <v>115</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>444</v>
+        <v>116</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>444</v>
+        <v>116</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>28</v>
@@ -19974,7 +19974,7 @@
         <v>33</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="P264" s="2" t="s">
         <v>33</v>
@@ -20015,16 +20015,16 @@
         <v>199</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>28</v>
@@ -20039,10 +20039,10 @@
         <v>31</v>
       </c>
       <c r="N265" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O265" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O265" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="P265" s="2" t="s">
         <v>33</v>
